--- a/medicine/Psychotrope/Brauerei_Ustersbach/Brauerei_Ustersbach.xlsx
+++ b/medicine/Psychotrope/Brauerei_Ustersbach/Brauerei_Ustersbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brauerei Ustersbach Adolf Schmid KG[1] est une brasserie à Ustersbach, dans le Land de Bavière (Allemagne).
+La Brauerei Ustersbach Adolf Schmid KG est une brasserie à Ustersbach, dans le Land de Bavière (Allemagne).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est une propriété privée depuis 1605[1].
-Stefanie Schmid, la directrice en 2021, est la quatorzième génération[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est une propriété privée depuis 1605.
+Stefanie Schmid, la directrice en 2021, est la quatorzième génération.
 La brasserie possède son propre puits de 140 m de profondeur d'où est extraite l'eau de brassage.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brauerei Ustersbach produit les bières suivantes : Ustersbacher Land-Zwickel, Ustersbacher Edel-Export, Ustersbacher Urhell, Ustersbacher Altbayerisch Dunkel, Ustersbacher Bayerisch Hefeweizen, Ustersbacher Dunkle Weisse, Ustersbacher Leichte Weisse, Ustersbacher Privat-Pils, Ustersbacher Jubiläumsbier 400, Ustersbacher Alkoholfreies Hefeweizen, Ustersbacher Festbier, Ustator, ppelbock au blé noir pour la saison hivernale. Radler et Natur-Radler complètent la gamme.
-Outre la bière, les boissons sans alcool Wita, Flumi et l'eau minérale du puits sont également mises en bouteille sous la marque Witaquelle[1].
+Outre la bière, les boissons sans alcool Wita, Flumi et l'eau minérale du puits sont également mises en bouteille sous la marque Witaquelle.
 </t>
         </is>
       </c>
